--- a/Data/N225_tap_res.xlsx
+++ b/Data/N225_tap_res.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="N225_tap_res" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -872,11 +872,12 @@
   <dimension ref="A1:N1488"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1471" workbookViewId="0">
-      <selection activeCell="K1477" sqref="K1477"/>
+      <selection activeCell="J1488" sqref="J1488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="12" max="14" width="6.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -70173,11 +70174,11 @@
         <v>-13</v>
       </c>
       <c r="L1476" s="2">
-        <f t="shared" ref="L1476:L1539" si="69">IF(J1476&lt;0,IF(K1476&lt;0,1,),0)</f>
+        <f t="shared" ref="L1476:L1488" si="69">IF(J1476&lt;0,IF(K1476&lt;0,1,),0)</f>
         <v>1</v>
       </c>
       <c r="M1476" s="2">
-        <f t="shared" ref="M1476:M1539" si="70">IF(J1476&gt;0,IF(K1476&gt;0,1,0),0)</f>
+        <f t="shared" ref="M1476:M1488" si="70">IF(J1476&gt;0,IF(K1476&gt;0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="N1476" s="2">
@@ -70651,7 +70652,7 @@
         <v>0</v>
       </c>
       <c r="N1486" s="2">
-        <f t="shared" ref="N1486:N1549" si="71">SUM(L1476:M1485)</f>
+        <f t="shared" ref="N1486:N1488" si="71">SUM(L1476:M1485)</f>
         <v>8</v>
       </c>
     </row>
